--- a/SideProject/03_Kaggle_House_Prices/Features_v3.xlsx
+++ b/SideProject/03_Kaggle_House_Prices/Features_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RT009223\Github\Projects\SideProject\03_Kaggle_House_Prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GitHub\Projects\SideProject\03_Kaggle_House_Prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="193">
   <si>
     <t>features</t>
   </si>
@@ -147,9 +147,6 @@
     <t>BsmtFinType1</t>
   </si>
   <si>
-    <t>BsmtFinSF1</t>
-  </si>
-  <si>
     <t>BsmtFinType2</t>
   </si>
   <si>
@@ -201,21 +198,12 @@
     <t>BedroomAbvGr</t>
   </si>
   <si>
-    <t>KitchenAbvGr</t>
-  </si>
-  <si>
     <t>KitchenQual</t>
   </si>
   <si>
-    <t>TotRmsAbvGrd</t>
-  </si>
-  <si>
     <t>Functional</t>
   </si>
   <si>
-    <t>Fireplaces</t>
-  </si>
-  <si>
     <t>FireplaceQu</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
   </si>
   <si>
     <t>GarageFinish</t>
-  </si>
-  <si>
-    <t>GarageCars</t>
   </si>
   <si>
     <t>GarageArea</t>
@@ -568,13 +553,91 @@
   </si>
   <si>
     <t>鋪的車道情況</t>
+  </si>
+  <si>
+    <t>木地板面積</t>
+  </si>
+  <si>
+    <t>開放式門廊區面積</t>
+  </si>
+  <si>
+    <t>封閉式門廊區面積</t>
+  </si>
+  <si>
+    <t>三個季節門廊面積</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紗門門廊面積</t>
+  </si>
+  <si>
+    <t>泳池面積</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泳池質量</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圍牆質量</t>
+  </si>
+  <si>
+    <t>其他特徵</t>
+  </si>
+  <si>
+    <t>其他雜項特徵值</t>
+  </si>
+  <si>
+    <t>賣出月份</t>
+  </si>
+  <si>
+    <t>賣出年份</t>
+  </si>
+  <si>
+    <t>交易類型</t>
+  </si>
+  <si>
+    <t>交易條件</t>
+  </si>
+  <si>
+    <t>BsmtFinSF1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotRmsAbvGrd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KitchenAbvGr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireplaces</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GarageCars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +686,12 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -659,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -675,6 +744,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -981,22 +1051,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,72 +1093,72 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1095,1002 +1166,1155 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="G33" t="s">
+        <v>188</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="F45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="H46" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="C50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" t="s">
+        <v>159</v>
+      </c>
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" t="s">
-        <v>123</v>
-      </c>
-      <c r="H44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" t="s">
-        <v>123</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G60" t="s">
-        <v>164</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="F64" t="s">
         <v>166</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" t="s">
-        <v>164</v>
-      </c>
-      <c r="H62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F64" t="s">
-        <v>171</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s">
+        <v>159</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>159</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B70" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G65" t="s">
-        <v>164</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="H70" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B71" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="E71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B72" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B76" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B77" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B78" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B79" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B80" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
+        <v>159</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B81" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>88</v>
+      <c r="C82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
